--- a/Ship and Weapon Pack/data/campaign/rules.xlsx
+++ b/Ship and Weapon Pack/data/campaign/rules.xlsx
@@ -6628,9 +6628,6 @@
     <t>swpBTUWBarEncounterMouseOptionJoin</t>
   </si>
   <si>
-    <t>swpBT_UWBarEventMouseJoin:"You should come with me."</t>
-  </si>
-  <si>
     <t>swpBTUWBarEncounterMouseAskJoin</t>
   </si>
   <si>
@@ -8088,6 +8085,9 @@
     <t>By the time you've returned to the relative safety of your $shipOrFleet, it becomes clear that your bodyguards aren't going to be coming back. Apparently, while buying time for you to interrogate the Mouse and make your own getaway, one of your bodyguards and two local law enforcement officers were killed, with several more wounded. Your remaining guards on the scene were arrested on charges of murder.
 It was a relatively trivial matter for the authorities to deduce that you were their employer. Local comms traffic already shows the incident spreading through the rumor mill; it won't be long before this becomes a full-blown incident. The besmirchment to your reputation aside, you won't be able to show your face on $marketName for some time.
 On the bright side, you have a new lead to pursue. Idly playing with Captain Lee's dagger, you plot your next move...</t>
+  </si>
+  <si>
+    <t>swpBT_UWBarEventMouseAskJoin:"You should come with me."</t>
   </si>
 </sst>
 </file>
@@ -8955,8 +8955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E400" sqref="E400"/>
+    <sheetView tabSelected="1" topLeftCell="A515" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E517" sqref="E517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9275,7 +9275,7 @@
         <v>1741</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>68</v>
@@ -9683,10 +9683,10 @@
         <v>48</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>923</v>
@@ -9729,7 +9729,7 @@
         <v>602</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>66</v>
@@ -9766,7 +9766,7 @@
         <v>602</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>66</v>
@@ -9783,7 +9783,7 @@
         <v>73</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>63</v>
@@ -9944,7 +9944,7 @@
         <v>337</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>78</v>
@@ -9961,7 +9961,7 @@
         <v>338</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>78</v>
@@ -10032,7 +10032,7 @@
         <v>114</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -10290,7 +10290,7 @@
         <v>604</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>134</v>
@@ -10503,7 +10503,7 @@
         <v>211</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>153</v>
@@ -10828,7 +10828,7 @@
         <v>216</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -11021,7 +11021,7 @@
         <v>223</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>310</v>
@@ -11189,7 +11189,7 @@
         <v>611</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -11203,10 +11203,10 @@
         <v>241</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>290</v>
@@ -11226,7 +11226,7 @@
         <v>608</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -11277,10 +11277,10 @@
         <v>271</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>289</v>
@@ -11334,7 +11334,7 @@
         <v>421</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>520</v>
@@ -11351,7 +11351,7 @@
         <v>420</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>520</v>
@@ -11368,7 +11368,7 @@
         <v>422</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>520</v>
@@ -11530,7 +11530,7 @@
         <v>436</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>523</v>
@@ -11550,7 +11550,7 @@
         <v>614</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -12094,7 +12094,7 @@
         <v>685</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>532</v>
@@ -12114,7 +12114,7 @@
         <v>685</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>532</v>
@@ -12385,7 +12385,7 @@
         <v>621</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>588</v>
@@ -12499,10 +12499,10 @@
         <v>628</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>958</v>
@@ -12519,10 +12519,10 @@
         <v>629</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>588</v>
@@ -12571,7 +12571,7 @@
         <v>634</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E218" s="4"/>
     </row>
@@ -12677,7 +12677,7 @@
         <v>660</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>659</v>
@@ -12694,7 +12694,7 @@
         <v>668</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>669</v>
@@ -12711,7 +12711,7 @@
         <v>643</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>644</v>
@@ -12834,613 +12834,613 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B235" t="s">
         <v>10</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>1943</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>1970</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B239" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>1947</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>1950</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1942</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B242" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B243" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C243" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>1953</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B244" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B245" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B246" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="B246" t="s">
-        <v>27</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>1958</v>
-      </c>
       <c r="D246" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B247" t="s">
         <v>27</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D247" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E247" s="4" t="s">
         <v>1989</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B248" t="s">
         <v>27</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B249" t="s">
         <v>27</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B250" t="s">
         <v>27</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B251" t="s">
         <v>27</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B252" t="s">
         <v>27</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B253" t="s">
         <v>27</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B254" t="s">
         <v>27</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D254" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E254" s="4" t="s">
         <v>1984</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B255" t="s">
         <v>27</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B256" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B257" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B258" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B259" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F259" s="1" t="s">
         <v>2117</v>
-      </c>
-      <c r="B259" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>2118</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="B260" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D260" s="1" t="s">
+      <c r="F260" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B261" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="B261" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>2198</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B262" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>2100</v>
       </c>
-      <c r="B263" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>2101</v>
-      </c>
       <c r="D263" s="1" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="B264" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>2109</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="F264" s="1" t="s">
         <v>2110</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B265" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B266" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="B267" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>2094</v>
-      </c>
       <c r="F267" s="1" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B268" t="s">
         <v>27</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B269" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B270" t="s">
         <v>2141</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E270" s="4" t="s">
         <v>2142</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>2147</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B271" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B272" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="B272" t="s">
-        <v>27</v>
-      </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>2179</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>2180</v>
-      </c>
       <c r="E272" s="8" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B273" t="s">
         <v>27</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F273" s="8" t="s">
         <v>1258</v>
@@ -13448,70 +13448,70 @@
     </row>
     <row r="274" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B274" t="s">
         <v>27</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B275" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>2105</v>
       </c>
-      <c r="B275" t="s">
-        <v>27</v>
-      </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>2106</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>2107</v>
-      </c>
       <c r="E275" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B276" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="B276" t="s">
-        <v>27</v>
-      </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>2116</v>
-      </c>
       <c r="E276" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="B277" t="s">
-        <v>27</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>2120</v>
-      </c>
       <c r="D277" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>1258</v>
@@ -13519,19 +13519,19 @@
     </row>
     <row r="278" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B278" t="s">
+        <v>27</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="B278" t="s">
-        <v>27</v>
-      </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>2134</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>2135</v>
-      </c>
       <c r="E278" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>1258</v>
@@ -13539,31 +13539,31 @@
     </row>
     <row r="279" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B279" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>2039</v>
       </c>
-      <c r="B279" t="s">
-        <v>27</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>2040</v>
-      </c>
       <c r="D279" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B280" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>1258</v>
@@ -13571,16 +13571,16 @@
     </row>
     <row r="281" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B281" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>1258</v>
@@ -13588,16 +13588,16 @@
     </row>
     <row r="282" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>2085</v>
       </c>
-      <c r="B282" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>2086</v>
-      </c>
       <c r="E282" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>1258</v>
@@ -13605,19 +13605,19 @@
     </row>
     <row r="283" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B283" t="s">
         <v>27</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>1258</v>
@@ -13625,50 +13625,50 @@
     </row>
     <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>2016</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B285" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B286" t="s">
         <v>27</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>1258</v>
@@ -13676,19 +13676,19 @@
     </row>
     <row r="287" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B287" t="s">
         <v>27</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>1258</v>
@@ -13696,280 +13696,280 @@
     </row>
     <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>2037</v>
       </c>
-      <c r="B288" t="s">
-        <v>2036</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>2038</v>
-      </c>
       <c r="D288" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B289" t="s">
         <v>2035</v>
-      </c>
-      <c r="B289" t="s">
-        <v>2036</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>964</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B290" t="s">
         <v>27</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B291" t="s">
         <v>27</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B292" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E292" s="4"/>
     </row>
     <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>1907</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>1908</v>
       </c>
       <c r="E293" s="7" t="s">
         <v>739</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>1909</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>1910</v>
       </c>
       <c r="E294" s="7" t="s">
         <v>739</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B295" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="B296" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>1904</v>
-      </c>
       <c r="E296" s="4" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B297" t="s">
         <v>27</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F297" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B298" t="s">
         <v>27</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E298" s="7" t="s">
         <v>739</v>
       </c>
       <c r="F298" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B299" t="s">
         <v>27</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E299" s="7" t="s">
         <v>739</v>
       </c>
       <c r="F299" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B300" t="s">
         <v>27</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E300" s="7" t="s">
         <v>739</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B301" t="s">
         <v>27</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D301" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E301" s="4" t="s">
         <v>1925</v>
       </c>
-      <c r="E301" s="4" t="s">
-        <v>1926</v>
-      </c>
       <c r="F301" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B302" t="s">
         <v>27</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B303" t="s">
         <v>27</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B304" t="s">
+        <v>27</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>1914</v>
-      </c>
-      <c r="B304" t="s">
-        <v>27</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>1915</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>1435</v>
@@ -13979,194 +13979,194 @@
     </row>
     <row r="305" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B305" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B306" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B307" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B308" t="s">
         <v>27</v>
       </c>
       <c r="C308" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E308" s="11" t="s">
         <v>2166</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="E308" s="11" t="s">
-        <v>2167</v>
-      </c>
       <c r="F308" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B309" t="s">
         <v>27</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B310" t="s">
+        <v>27</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>2170</v>
       </c>
-      <c r="B310" t="s">
-        <v>27</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>2171</v>
-      </c>
       <c r="D310" s="1" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B311" t="s">
         <v>27</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E311" s="7" t="s">
         <v>739</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B312" t="s">
         <v>27</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E312" s="7" t="s">
         <v>739</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B313" t="s">
+        <v>27</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>2161</v>
-      </c>
-      <c r="B313" t="s">
-        <v>27</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>2162</v>
       </c>
       <c r="E313" s="7" t="s">
         <v>739</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B314" t="s">
+        <v>27</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>2151</v>
       </c>
-      <c r="B314" t="s">
-        <v>27</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>2152</v>
-      </c>
       <c r="D314" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="F314" s="7" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -14380,7 +14380,7 @@
         <v>775</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>1417</v>
@@ -15062,7 +15062,7 @@
         <v>964</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E370" s="4" t="s">
         <v>1021</v>
@@ -15298,7 +15298,7 @@
         <v>775</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>1418</v>
@@ -15312,7 +15312,7 @@
         <v>775</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>1419</v>
@@ -15503,7 +15503,7 @@
         <v>27</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>1701</v>
@@ -15523,7 +15523,7 @@
         <v>27</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>1210</v>
@@ -15575,7 +15575,7 @@
         <v>27</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>1214</v>
@@ -15787,7 +15787,7 @@
         <v>27</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>1707</v>
@@ -15807,7 +15807,7 @@
         <v>27</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>1218</v>
@@ -15859,7 +15859,7 @@
         <v>27</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>1222</v>
@@ -16290,7 +16290,7 @@
         <v>1156</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E439" s="8" t="s">
         <v>1158</v>
@@ -16589,7 +16589,7 @@
         <v>1466</v>
       </c>
       <c r="E456" s="8" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="F456" s="4"/>
       <c r="G456" s="2" t="s">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="E474" s="8"/>
       <c r="F474" s="8" t="s">
-        <v>1845</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="475" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -16904,7 +16904,7 @@
         <v>1469</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E475" s="8"/>
       <c r="F475" s="8" t="s">
@@ -17287,7 +17287,7 @@
         <v>1547</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E497" s="8"/>
       <c r="F497" s="8" t="s">
@@ -17676,73 +17676,73 @@
     </row>
     <row r="519" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B519" t="s">
+        <v>27</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E519" s="8" t="s">
         <v>1850</v>
-      </c>
-      <c r="B519" t="s">
-        <v>27</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D519" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E519" s="8" t="s">
-        <v>1851</v>
       </c>
       <c r="F519" s="8"/>
     </row>
     <row r="520" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B520" t="s">
+        <v>27</v>
+      </c>
+      <c r="C520" s="1" t="s">
         <v>1852</v>
       </c>
-      <c r="B520" t="s">
-        <v>27</v>
-      </c>
-      <c r="C520" s="1" t="s">
+      <c r="D520" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E520" s="8" t="s">
         <v>1853</v>
-      </c>
-      <c r="D520" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E520" s="8" t="s">
-        <v>1854</v>
       </c>
       <c r="F520" s="8"/>
     </row>
     <row r="521" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B521" t="s">
+        <v>27</v>
+      </c>
+      <c r="C521" s="1" t="s">
         <v>1855</v>
       </c>
-      <c r="B521" t="s">
-        <v>27</v>
-      </c>
-      <c r="C521" s="1" t="s">
+      <c r="D521" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E521" s="8" t="s">
         <v>1856</v>
-      </c>
-      <c r="D521" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E521" s="8" t="s">
-        <v>1857</v>
       </c>
       <c r="F521" s="8"/>
     </row>
     <row r="522" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B522" t="s">
         <v>27</v>
       </c>
       <c r="C522" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D522" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="D522" s="1" t="s">
+      <c r="E522" s="8" t="s">
         <v>1859</v>
-      </c>
-      <c r="E522" s="8" t="s">
-        <v>1860</v>
       </c>
       <c r="F522" s="8"/>
     </row>
@@ -17992,7 +17992,7 @@
         <v>1195</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="F536" s="4" t="s">
         <v>1432</v>
@@ -18046,7 +18046,7 @@
         <v>913</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -18168,7 +18168,7 @@
         <v>1367</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E548" s="8" t="s">
         <v>1289</v>
@@ -18307,7 +18307,7 @@
         <v>1346</v>
       </c>
       <c r="E556" s="8" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F556" s="8"/>
     </row>
@@ -18433,7 +18433,7 @@
         <v>1039</v>
       </c>
       <c r="E563" s="8" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F563" s="8" t="s">
         <v>1386</v>
@@ -18453,7 +18453,7 @@
         <v>1388</v>
       </c>
       <c r="E564" s="8" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F564" s="8" t="s">
         <v>1405</v>
@@ -18473,7 +18473,7 @@
         <v>1388</v>
       </c>
       <c r="E565" s="8" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F565" s="8" t="s">
         <v>1721</v>
@@ -18894,7 +18894,7 @@
         <v>1753</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E590" s="4" t="s">
         <v>1736</v>
@@ -18914,7 +18914,7 @@
         <v>1752</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E591" s="4" t="s">
         <v>1755</v>
@@ -18934,7 +18934,7 @@
         <v>1730</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E592" s="4" t="s">
         <v>1749</v>
@@ -18951,7 +18951,7 @@
         <v>1731</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E593" s="4" t="s">
         <v>1750</v>
@@ -18968,7 +18968,7 @@
         <v>1729</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E594" s="4"/>
     </row>
@@ -18983,22 +18983,22 @@
         <v>1757</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E595" s="4"/>
     </row>
     <row r="596" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B596" t="s">
+        <v>27</v>
+      </c>
+      <c r="C596" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="B596" t="s">
-        <v>27</v>
-      </c>
-      <c r="C596" s="1" t="s">
-        <v>2187</v>
-      </c>
       <c r="D596" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="G596"/>
     </row>
@@ -19030,7 +19030,7 @@
         <v>1737</v>
       </c>
       <c r="D598" s="8" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="E598" s="8" t="s">
         <v>1760</v>
@@ -19069,7 +19069,7 @@
         <v>1759</v>
       </c>
       <c r="D600" s="8" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E600" s="8" t="s">
         <v>1764</v>
@@ -19167,7 +19167,7 @@
         <v>1767</v>
       </c>
       <c r="D606" s="5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E606" s="8" t="s">
         <v>1769</v>
@@ -19210,7 +19210,7 @@
         <v>1776</v>
       </c>
       <c r="E608" s="8" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="F608" s="1" t="s">
         <v>1775</v>
@@ -19231,7 +19231,7 @@
         <v>1776</v>
       </c>
       <c r="E609" s="11" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F609" s="10" t="s">
         <v>1775</v>
@@ -19254,7 +19254,7 @@
         <v>1776</v>
       </c>
       <c r="E610" s="8" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F610" s="5" t="s">
         <v>1775</v>
@@ -19272,7 +19272,7 @@
         <v>1783</v>
       </c>
       <c r="D611" s="5" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E611" s="8" t="s">
         <v>1796</v>
@@ -19312,10 +19312,10 @@
         <v>1790</v>
       </c>
       <c r="D613" s="5" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E613" s="8" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F613" s="1" t="s">
         <v>1791</v>
@@ -19333,10 +19333,10 @@
         <v>1794</v>
       </c>
       <c r="D614" s="5" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="E614" s="8" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="F614" s="1" t="s">
         <v>1795</v>
@@ -19354,7 +19354,7 @@
         <v>1798</v>
       </c>
       <c r="D615" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="E615" s="8" t="s">
         <v>1800</v>
@@ -19378,7 +19378,7 @@
         <v>1776</v>
       </c>
       <c r="E616" s="8" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F616" s="1" t="s">
         <v>1803</v>
@@ -19397,7 +19397,7 @@
       </c>
       <c r="D617" s="5"/>
       <c r="E617" s="8" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F617" s="1" t="s">
         <v>1806</v>
@@ -19415,31 +19415,31 @@
         <v>1808</v>
       </c>
       <c r="D618" s="5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E618" s="8" t="s">
         <v>1810</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G618" s="15"/>
     </row>
     <row r="619" spans="1:7" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A619" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B619" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C619" s="8" t="s">
         <v>1930</v>
       </c>
-      <c r="B619" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C619" s="8" t="s">
-        <v>1931</v>
-      </c>
       <c r="D619" s="5" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E619" s="8" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F619" s="1" t="s">
         <v>1809</v>
@@ -19520,7 +19520,7 @@
         <v>1840</v>
       </c>
       <c r="D623" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E623" s="8" t="s">
         <v>1843</v>
@@ -19541,10 +19541,10 @@
         <v>1814</v>
       </c>
       <c r="D624" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E624" s="8" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F624" s="5"/>
       <c r="G624" s="15"/>
